--- a/lytic_expression.xlsx
+++ b/lytic_expression.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/lindsay_e_martin_vanderbilt_edu/Documents/Hillyer_Lab/Lytic_Immunity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{046E0F30-7F75-4E0F-BE9C-2043AC8BDB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0116C533-1BB3-46D0-BB5E-A222AB7A174D}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{046E0F30-7F75-4E0F-BE9C-2043AC8BDB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD2993B1-7A5E-4000-A659-5B818FE179F4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{4D6C556E-BDDF-4504-9A09-2A1D456110CB}"/>
   </bookViews>
   <sheets>
     <sheet name="all_genes" sheetId="1" r:id="rId1"/>
-    <sheet name="Cecropin_ref" sheetId="2" r:id="rId2"/>
+    <sheet name="manova" sheetId="3" r:id="rId2"/>
+    <sheet name="Cecropin_ref" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cecropin_ref!$B$1:$B$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Cecropin_ref!$B$1:$B$33</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,15 +41,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="13">
   <si>
     <t>Naïve</t>
-  </si>
-  <si>
-    <t>1d</t>
-  </si>
-  <si>
-    <t>10d</t>
   </si>
   <si>
     <t>Temperature</t>
@@ -534,33 +529,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4247A6AA-E7B6-47C8-B384-A32B76D42CEE}">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="17.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>27</v>
       </c>
@@ -568,50 +580,74 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>27</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
       <c r="E4" s="2">
         <v>18.03</v>
@@ -619,19 +655,31 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G4" s="2">
+        <v>18.03</v>
+      </c>
+      <c r="H4" s="2">
+        <v>23.04</v>
+      </c>
+      <c r="I4" s="2">
+        <v>7.74</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.4350000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>27</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>2</v>
+      <c r="B5" s="4">
+        <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
       </c>
       <c r="E5" s="5">
         <v>1.415</v>
@@ -639,19 +687,31 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" s="5">
+        <v>1.415</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4.21</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1.7349999999999999</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>27</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="7">
         <v>20.398499999999999</v>
@@ -659,19 +719,31 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G6" s="7">
+        <v>20.398499999999999</v>
+      </c>
+      <c r="H6" s="7">
+        <v>29.344999999999999</v>
+      </c>
+      <c r="I6" s="7">
+        <v>9.8550000000000004</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1.335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>27</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>2</v>
+      <c r="B7" s="4">
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="5">
         <v>1.94</v>
@@ -679,8 +751,20 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" s="5">
+        <v>1.94</v>
+      </c>
+      <c r="H7" s="5">
+        <v>8.4</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1.0699999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>27</v>
       </c>
@@ -688,50 +772,74 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>27</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
       </c>
       <c r="E10" s="3">
         <v>11.120000000000001</v>
@@ -739,19 +847,31 @@
       <c r="F10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G10" s="3">
+        <v>11.120000000000001</v>
+      </c>
+      <c r="H10" s="3">
+        <v>21.25</v>
+      </c>
+      <c r="I10" s="3">
+        <v>5.44</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>2</v>
+      <c r="B11" s="4">
+        <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
       </c>
       <c r="E11" s="6">
         <v>1.2749999999999999</v>
@@ -759,19 +879,31 @@
       <c r="F11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" s="6">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="H11" s="6">
+        <v>5.45</v>
+      </c>
+      <c r="I11" s="6">
+        <v>2.91</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1.2749999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>27</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="8">
         <v>14.940000000000001</v>
@@ -779,19 +911,31 @@
       <c r="F12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G12" s="8">
+        <v>14.940000000000001</v>
+      </c>
+      <c r="H12" s="8">
+        <v>33.564999999999998</v>
+      </c>
+      <c r="I12" s="8">
+        <v>7.04</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>27</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>2</v>
+      <c r="B13" s="4">
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="6">
         <v>1.43</v>
@@ -799,8 +943,20 @@
       <c r="F13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13" s="6">
+        <v>1.43</v>
+      </c>
+      <c r="H13" s="6">
+        <v>7.98</v>
+      </c>
+      <c r="I13" s="6">
+        <v>2.625</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1.1099999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>30</v>
       </c>
@@ -808,50 +964,74 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>30</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
       </c>
       <c r="E16" s="2">
         <v>4.5199999999999996</v>
@@ -859,19 +1039,31 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G16" s="2">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="H16" s="2">
+        <v>6.06</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2.79</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>30</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>2</v>
+      <c r="B17" s="4">
+        <v>10</v>
       </c>
       <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
       </c>
       <c r="E17" s="5">
         <v>1.01</v>
@@ -879,19 +1071,31 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" s="5">
+        <v>1.01</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1.3900000000000001</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>30</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="7">
         <v>7.0649999999999995</v>
@@ -899,19 +1103,31 @@
       <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G18" s="7">
+        <v>7.0649999999999995</v>
+      </c>
+      <c r="H18" s="7">
+        <v>9.1</v>
+      </c>
+      <c r="I18" s="7">
+        <v>3.6949999999999998</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.94500000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>30</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>2</v>
+      <c r="B19" s="4">
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="5">
         <v>1.98</v>
@@ -919,8 +1135,20 @@
       <c r="F19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19" s="5">
+        <v>1.98</v>
+      </c>
+      <c r="H19" s="5">
+        <v>5.6150000000000002</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1.0249999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>30</v>
       </c>
@@ -928,50 +1156,74 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>30</v>
-      </c>
-      <c r="B21">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>30</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
       </c>
       <c r="E22" s="3">
         <v>4.5150000000000006</v>
@@ -979,19 +1231,31 @@
       <c r="F22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G22" s="3">
+        <v>4.5150000000000006</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5.4950000000000001</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2.855</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1.0649999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>30</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>2</v>
+      <c r="B23" s="4">
+        <v>10</v>
       </c>
       <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
       </c>
       <c r="E23" s="6">
         <v>2.335</v>
@@ -999,19 +1263,31 @@
       <c r="F23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23" s="6">
+        <v>2.335</v>
+      </c>
+      <c r="H23" s="6">
+        <v>3.7199999999999998</v>
+      </c>
+      <c r="I23" s="6">
+        <v>2.1850000000000001</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>30</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="1">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="8">
         <v>4.95</v>
@@ -1019,19 +1295,31 @@
       <c r="F24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G24" s="8">
+        <v>4.95</v>
+      </c>
+      <c r="H24" s="8">
+        <v>8.120000000000001</v>
+      </c>
+      <c r="I24" s="8">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>30</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>2</v>
+      <c r="B25" s="4">
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="6">
         <v>2.4450000000000003</v>
@@ -1039,8 +1327,20 @@
       <c r="F25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G25" s="6">
+        <v>2.4450000000000003</v>
+      </c>
+      <c r="H25" s="6">
+        <v>5.08</v>
+      </c>
+      <c r="I25" s="6">
+        <v>3.08</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>27</v>
       </c>
@@ -1048,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
         <v>0</v>
@@ -1059,8 +1359,9 @@
       <c r="F26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>27</v>
       </c>
@@ -1068,7 +1369,7 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
         <v>0</v>
@@ -1079,19 +1380,20 @@
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="1">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E28" s="2">
         <v>23.04</v>
@@ -1099,19 +1401,20 @@
       <c r="F28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>2</v>
+      <c r="B29" s="4">
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E29" s="5">
         <v>4.21</v>
@@ -1119,19 +1422,20 @@
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>27</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="1">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E30" s="7">
         <v>29.344999999999999</v>
@@ -1139,19 +1443,20 @@
       <c r="F30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>27</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>2</v>
+      <c r="B31" s="4">
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E31" s="5">
         <v>8.4</v>
@@ -1159,8 +1464,9 @@
       <c r="F31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>27</v>
       </c>
@@ -1168,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
         <v>0</v>
@@ -1179,8 +1485,9 @@
       <c r="F32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>27</v>
       </c>
@@ -1188,7 +1495,7 @@
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
         <v>0</v>
@@ -1199,19 +1506,20 @@
       <c r="F33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>27</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="1">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E34" s="3">
         <v>21.25</v>
@@ -1219,19 +1527,20 @@
       <c r="F34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>27</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>2</v>
+      <c r="B35" s="4">
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E35" s="6">
         <v>5.45</v>
@@ -1239,19 +1548,20 @@
       <c r="F35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>27</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="1">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E36" s="8">
         <v>33.564999999999998</v>
@@ -1259,19 +1569,20 @@
       <c r="F36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>27</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>2</v>
+      <c r="B37" s="4">
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E37" s="6">
         <v>7.98</v>
@@ -1279,8 +1590,9 @@
       <c r="F37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>30</v>
       </c>
@@ -1288,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
         <v>0</v>
@@ -1299,8 +1611,9 @@
       <c r="F38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>30</v>
       </c>
@@ -1308,7 +1621,7 @@
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
         <v>0</v>
@@ -1319,19 +1632,20 @@
       <c r="F39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>30</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="1">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E40" s="2">
         <v>6.06</v>
@@ -1339,19 +1653,20 @@
       <c r="F40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>30</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>2</v>
+      <c r="B41" s="4">
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E41" s="5">
         <v>1.3900000000000001</v>
@@ -1359,19 +1674,20 @@
       <c r="F41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>30</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="1">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E42" s="7">
         <v>9.1</v>
@@ -1379,19 +1695,20 @@
       <c r="F42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>30</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>2</v>
+      <c r="B43" s="4">
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E43" s="5">
         <v>5.6150000000000002</v>
@@ -1399,8 +1716,9 @@
       <c r="F43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>30</v>
       </c>
@@ -1408,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
         <v>0</v>
@@ -1419,8 +1737,9 @@
       <c r="F44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>30</v>
       </c>
@@ -1428,7 +1747,7 @@
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
         <v>0</v>
@@ -1439,19 +1758,20 @@
       <c r="F45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>30</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="1">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E46" s="3">
         <v>5.4950000000000001</v>
@@ -1459,19 +1779,20 @@
       <c r="F46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>30</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>2</v>
+      <c r="B47" s="4">
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E47" s="6">
         <v>3.7199999999999998</v>
@@ -1479,19 +1800,20 @@
       <c r="F47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>30</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="1">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E48" s="8">
         <v>8.120000000000001</v>
@@ -1499,19 +1821,20 @@
       <c r="F48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I48" s="8"/>
+    </row>
+    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>30</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>2</v>
+      <c r="B49" s="4">
+        <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E49" s="6">
         <v>5.08</v>
@@ -1519,8 +1842,9 @@
       <c r="F49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>27</v>
       </c>
@@ -1528,7 +1852,7 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
         <v>0</v>
@@ -1540,7 +1864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>27</v>
       </c>
@@ -1548,7 +1872,7 @@
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
         <v>0</v>
@@ -1560,18 +1884,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>27</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="1">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E52" s="2">
         <v>7.74</v>
@@ -1580,18 +1904,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>27</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>2</v>
+      <c r="B53" s="4">
+        <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E53" s="5">
         <v>1.7349999999999999</v>
@@ -1600,18 +1924,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>27</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="1">
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E54" s="7">
         <v>9.8550000000000004</v>
@@ -1620,18 +1944,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>27</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>2</v>
+      <c r="B55" s="4">
+        <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E55" s="5">
         <v>2.6500000000000004</v>
@@ -1640,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>27</v>
       </c>
@@ -1648,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
         <v>0</v>
@@ -1660,7 +1984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>27</v>
       </c>
@@ -1668,7 +1992,7 @@
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
         <v>0</v>
@@ -1680,18 +2004,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>27</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="1">
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E58" s="3">
         <v>5.44</v>
@@ -1700,18 +2024,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>27</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>2</v>
+      <c r="B59" s="4">
+        <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E59" s="6">
         <v>2.91</v>
@@ -1720,18 +2044,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>27</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="1">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E60" s="8">
         <v>7.04</v>
@@ -1740,18 +2064,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>27</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>2</v>
+      <c r="B61" s="4">
+        <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E61" s="6">
         <v>2.625</v>
@@ -1760,7 +2084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>30</v>
       </c>
@@ -1768,7 +2092,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
         <v>0</v>
@@ -1780,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>30</v>
       </c>
@@ -1788,7 +2112,7 @@
         <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
         <v>0</v>
@@ -1800,18 +2124,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>30</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="1">
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E64" s="2">
         <v>2.79</v>
@@ -1824,14 +2148,14 @@
       <c r="A65">
         <v>30</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>2</v>
+      <c r="B65" s="4">
+        <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E65" s="5">
         <v>0.66500000000000004</v>
@@ -1844,14 +2168,14 @@
       <c r="A66">
         <v>30</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="1">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E66" s="7">
         <v>3.6949999999999998</v>
@@ -1864,14 +2188,14 @@
       <c r="A67">
         <v>30</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>2</v>
+      <c r="B67" s="4">
+        <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E67" s="5">
         <v>1.2</v>
@@ -1888,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
         <v>0</v>
@@ -1908,7 +2232,7 @@
         <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
         <v>0</v>
@@ -1924,14 +2248,14 @@
       <c r="A70">
         <v>30</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="1">
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E70" s="3">
         <v>2.855</v>
@@ -1944,14 +2268,14 @@
       <c r="A71">
         <v>30</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>2</v>
+      <c r="B71" s="4">
+        <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E71" s="6">
         <v>2.1850000000000001</v>
@@ -1964,14 +2288,14 @@
       <c r="A72">
         <v>30</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="1">
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E72" s="8">
         <v>4.6500000000000004</v>
@@ -1984,14 +2308,14 @@
       <c r="A73">
         <v>30</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>2</v>
+      <c r="B73" s="4">
+        <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E73" s="6">
         <v>3.08</v>
@@ -2008,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D74" t="s">
         <v>0</v>
@@ -2028,7 +2352,7 @@
         <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D75" t="s">
         <v>0</v>
@@ -2044,14 +2368,14 @@
       <c r="A76">
         <v>27</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="1">
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E76" s="2">
         <v>1.4350000000000001</v>
@@ -2064,14 +2388,14 @@
       <c r="A77">
         <v>27</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>2</v>
+      <c r="B77" s="4">
+        <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E77" s="5">
         <v>0.89</v>
@@ -2084,14 +2408,14 @@
       <c r="A78">
         <v>27</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="1">
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E78" s="7">
         <v>1.335</v>
@@ -2104,14 +2428,14 @@
       <c r="A79">
         <v>27</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>2</v>
+      <c r="B79" s="4">
+        <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E79" s="5">
         <v>1.0699999999999998</v>
@@ -2128,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D80" t="s">
         <v>0</v>
@@ -2148,7 +2472,7 @@
         <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D81" t="s">
         <v>0</v>
@@ -2164,14 +2488,14 @@
       <c r="A82">
         <v>27</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="1">
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E82" s="3">
         <v>1.125</v>
@@ -2184,14 +2508,14 @@
       <c r="A83">
         <v>27</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>2</v>
+      <c r="B83" s="4">
+        <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E83" s="6">
         <v>1.2749999999999999</v>
@@ -2204,14 +2528,14 @@
       <c r="A84">
         <v>27</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="1">
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E84" s="8">
         <v>1.25</v>
@@ -2224,14 +2548,14 @@
       <c r="A85">
         <v>27</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>2</v>
+      <c r="B85" s="4">
+        <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E85" s="6">
         <v>1.1099999999999999</v>
@@ -2248,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D86" t="s">
         <v>0</v>
@@ -2268,7 +2592,7 @@
         <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D87" t="s">
         <v>0</v>
@@ -2284,14 +2608,14 @@
       <c r="A88">
         <v>30</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="1">
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E88" s="2">
         <v>0.98499999999999999</v>
@@ -2304,14 +2628,14 @@
       <c r="A89">
         <v>30</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>2</v>
+      <c r="B89" s="4">
+        <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E89" s="5">
         <v>0.86</v>
@@ -2324,14 +2648,14 @@
       <c r="A90">
         <v>30</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="1">
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E90" s="7">
         <v>0.94500000000000006</v>
@@ -2344,14 +2668,14 @@
       <c r="A91">
         <v>30</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>2</v>
+      <c r="B91" s="4">
+        <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E91" s="5">
         <v>1.0249999999999999</v>
@@ -2368,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D92" t="s">
         <v>0</v>
@@ -2388,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D93" t="s">
         <v>0</v>
@@ -2404,14 +2728,14 @@
       <c r="A94">
         <v>30</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="1">
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E94" s="3">
         <v>1.0649999999999999</v>
@@ -2424,14 +2748,14 @@
       <c r="A95">
         <v>30</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>2</v>
+      <c r="B95" s="4">
+        <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E95" s="6">
         <v>0.88500000000000001</v>
@@ -2444,14 +2768,14 @@
       <c r="A96">
         <v>30</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="1">
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E96" s="8">
         <v>0.95</v>
@@ -2464,14 +2788,14 @@
       <c r="A97">
         <v>30</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>2</v>
+      <c r="B97" s="4">
+        <v>10</v>
       </c>
       <c r="C97" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E97" s="6">
         <v>0.89999999999999991</v>
@@ -2487,12 +2811,677 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704F524A-D325-48FE-A86E-D8C081B0940A}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>18.03</v>
+      </c>
+      <c r="F4" s="2">
+        <v>23.04</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7.74</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.4350000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1.415</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4.21</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1.7349999999999999</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>20.398499999999999</v>
+      </c>
+      <c r="F6" s="7">
+        <v>29.344999999999999</v>
+      </c>
+      <c r="G6" s="7">
+        <v>9.8550000000000004</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1.335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1.94</v>
+      </c>
+      <c r="F7" s="5">
+        <v>8.4</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1.0699999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>11.120000000000001</v>
+      </c>
+      <c r="F10" s="3">
+        <v>21.25</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5.44</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5.45</v>
+      </c>
+      <c r="G11" s="6">
+        <v>2.91</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1.2749999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="8">
+        <v>14.940000000000001</v>
+      </c>
+      <c r="F12" s="8">
+        <v>33.564999999999998</v>
+      </c>
+      <c r="G12" s="8">
+        <v>7.04</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>27</v>
+      </c>
+      <c r="B13" s="4">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1.43</v>
+      </c>
+      <c r="F13" s="6">
+        <v>7.98</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2.625</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1.1099999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="F16" s="2">
+        <v>6.06</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2.79</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>30</v>
+      </c>
+      <c r="B17" s="4">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1.01</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1.3900000000000001</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7">
+        <v>7.0649999999999995</v>
+      </c>
+      <c r="F18" s="7">
+        <v>9.1</v>
+      </c>
+      <c r="G18" s="7">
+        <v>3.6949999999999998</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.94500000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>30</v>
+      </c>
+      <c r="B19" s="4">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1.98</v>
+      </c>
+      <c r="F19" s="5">
+        <v>5.6150000000000002</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1.0249999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4.5150000000000006</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5.4950000000000001</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2.855</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1.0649999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>30</v>
+      </c>
+      <c r="B23" s="4">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2.335</v>
+      </c>
+      <c r="F23" s="6">
+        <v>3.7199999999999998</v>
+      </c>
+      <c r="G23" s="6">
+        <v>2.1850000000000001</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" s="8">
+        <v>4.95</v>
+      </c>
+      <c r="F24" s="8">
+        <v>8.120000000000001</v>
+      </c>
+      <c r="G24" s="8">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>30</v>
+      </c>
+      <c r="B25" s="4">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2.4450000000000003</v>
+      </c>
+      <c r="F25" s="6">
+        <v>5.08</v>
+      </c>
+      <c r="G25" s="6">
+        <v>3.08</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8AD162-27A8-47E5-94AC-5B8E16014C03}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2505,22 +3494,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2531,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -2551,7 +3540,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
@@ -2571,10 +3560,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="7">
         <v>29.344999999999999</v>
@@ -2591,10 +3580,10 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="5">
         <v>8.4</v>
@@ -2611,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -2631,7 +3620,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
@@ -2651,10 +3640,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="8">
         <v>33.564999999999998</v>
@@ -2671,10 +3660,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" s="6">
         <v>7.98</v>
@@ -2691,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
@@ -2711,7 +3700,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
@@ -2731,10 +3720,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="7">
         <v>9.1</v>
@@ -2751,10 +3740,10 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="5">
         <v>5.6150000000000002</v>
@@ -2771,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
         <v>0</v>
@@ -2791,7 +3780,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
         <v>0</v>
@@ -2811,10 +3800,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="8">
         <v>8.120000000000001</v>
@@ -2831,10 +3820,10 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="6">
         <v>5.08</v>
@@ -2851,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
         <v>0</v>
@@ -2871,7 +3860,7 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
         <v>0</v>
@@ -2891,10 +3880,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="7">
         <v>1.335</v>
@@ -2911,10 +3900,10 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="5">
         <v>1.0699999999999998</v>
@@ -2931,7 +3920,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
         <v>0</v>
@@ -2951,7 +3940,7 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
         <v>0</v>
@@ -2971,10 +3960,10 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="8">
         <v>1.25</v>
@@ -2991,10 +3980,10 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="6">
         <v>1.1099999999999999</v>
@@ -3011,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
         <v>0</v>
@@ -3031,7 +4020,7 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
         <v>0</v>
@@ -3051,10 +4040,10 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28" s="7">
         <v>0.94500000000000006</v>
@@ -3071,10 +4060,10 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E29" s="5">
         <v>1.0249999999999999</v>
@@ -3091,7 +4080,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
         <v>0</v>
@@ -3111,7 +4100,7 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
         <v>0</v>
@@ -3131,10 +4120,10 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E32" s="8">
         <v>0.95</v>
@@ -3151,10 +4140,10 @@
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E33" s="6">
         <v>0.89999999999999991</v>
